--- a/data/trans_camb/P1428-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1428-Provincia-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-4.42928598235241</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-5.511678202259872</v>
+        <v>-5.511678202259873</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-3.411182096475986</v>
@@ -664,7 +664,7 @@
         <v>-2.291553845079569</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-4.195621757868352</v>
+        <v>-4.19562175786835</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.30997886229785</v>
+        <v>-5.610496767645305</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.227980069264568</v>
+        <v>-3.612469852873486</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.848001421962785</v>
+        <v>-6.325196176978691</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.68046273548436</v>
+        <v>-10.55720325893274</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-9.494005912056853</v>
+        <v>-10.10833806173705</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-9.992898915020525</v>
+        <v>-10.67355326698313</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-6.96272022374765</v>
+        <v>-6.485324315725583</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.907834301056993</v>
+        <v>-5.784797932165941</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.26807127439475</v>
+        <v>-7.034776209455881</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.316006463908483</v>
+        <v>2.160274295806751</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.775570205336427</v>
+        <v>3.930162892760555</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.05359533257082232</v>
+        <v>0.1312109432914869</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.04175258849721604</v>
+        <v>0.1940178846952727</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.318482203094452</v>
+        <v>0.8995913707796063</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.8581819185401135</v>
+        <v>-0.8951588250041685</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.3121631803944848</v>
+        <v>0.1239764820263224</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9716213569997918</v>
+        <v>0.8586917026574763</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.502501093414148</v>
+        <v>-1.478298659089868</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.04939654231780809</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.5107469922025426</v>
+        <v>-0.5107469922025425</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.3981982277873983</v>
@@ -760,7 +760,7 @@
         <v>-0.3354998963767551</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.4174865820558525</v>
+        <v>-0.4174865820558526</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.3598702615838985</v>
@@ -769,7 +769,7 @@
         <v>-0.2417525826353018</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.4426264728203756</v>
+        <v>-0.4426264728203754</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6996328638062884</v>
+        <v>-0.713757224441011</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5444645920329875</v>
+        <v>-0.4799113934156757</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7868534183153764</v>
+        <v>-0.7644329643446942</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6594444089153815</v>
+        <v>-0.656683862279133</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6150441998207263</v>
+        <v>-0.6231696210697483</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6102753735467684</v>
+        <v>-0.6159981737865238</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.597294496983762</v>
+        <v>-0.5766201719370074</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5196703250085857</v>
+        <v>-0.4981598058236896</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6224030479771776</v>
+        <v>-0.6042914963039483</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5590350447287583</v>
+        <v>0.5721308008088847</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9467743681778691</v>
+        <v>0.9575166174874984</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.04440154826842112</v>
+        <v>0.09565386025782431</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.01470197165253754</v>
+        <v>0.02826695613946658</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1324101100010195</v>
+        <v>0.1058394016543678</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.08009728457701486</v>
+        <v>-0.08508006246980147</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.003719136008759599</v>
+        <v>0.03046534918446336</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1322167084507458</v>
+        <v>0.1309359919862157</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1995640090429781</v>
+        <v>-0.1920634354726791</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.500893965426282</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.7144360139490019</v>
+        <v>-0.7144360139490026</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-8.968191542893125</v>
@@ -878,7 +878,7 @@
         <v>-5.291499119408563</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-5.086694415900094</v>
+        <v>-5.086694415900096</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.960528022271807</v>
+        <v>-4.284390636891692</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.832354855552653</v>
+        <v>-4.185455292339937</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.143422041016212</v>
+        <v>-3.145684355248771</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-13.0213928167742</v>
+        <v>-13.29127746148158</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-13.47453167496196</v>
+        <v>-13.40511010272084</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-13.28799245271188</v>
+        <v>-13.31964120397643</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-8.074991433495221</v>
+        <v>-7.881653325102632</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-7.763703140238457</v>
+        <v>-7.746453255034733</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-7.483890868337999</v>
+        <v>-7.640057634158389</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7296390911930752</v>
+        <v>0.9156244624316252</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7458142942865982</v>
+        <v>0.7396407525769361</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.816152653118932</v>
+        <v>2.00162876023119</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-4.329839370189379</v>
+        <v>-4.857518578086355</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-4.97038679223636</v>
+        <v>-4.592347769662149</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-4.904206320360101</v>
+        <v>-5.649723505690697</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-2.932309208504355</v>
+        <v>-2.906984091614983</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-2.750422867789034</v>
+        <v>-2.571442279254776</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.660488529276362</v>
+        <v>-2.746413754586177</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.3289680175682714</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1565910747875044</v>
+        <v>-0.1565910747875046</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.4884919575012207</v>
@@ -983,7 +983,7 @@
         <v>-0.4586977179538784</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.4409440628921243</v>
+        <v>-0.4409440628921245</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7097797605900593</v>
+        <v>-0.7099134021264476</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6516569146677779</v>
+        <v>-0.6557959672050628</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5306437609335705</v>
+        <v>-0.540622995897665</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.634272838486408</v>
+        <v>-0.6384137263286658</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6431002069263217</v>
+        <v>-0.6469527633617947</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6319625020210067</v>
+        <v>-0.6476342633908042</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6092167206284256</v>
+        <v>-0.6042154380785327</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5965854443581955</v>
+        <v>-0.5964585584125219</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5688062101195581</v>
+        <v>-0.5771601267438853</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2610820819375785</v>
+        <v>0.3758701860770944</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2647932836048378</v>
+        <v>0.2710548663583927</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.536301915647179</v>
+        <v>0.6718143807454884</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2712276104871412</v>
+        <v>-0.2918437060136115</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2954923207395682</v>
+        <v>-0.2807434355391716</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3286471680551726</v>
+        <v>-0.3511509602082087</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2734758419105148</v>
+        <v>-0.2756935212776863</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2628977884545305</v>
+        <v>-0.2443881457413264</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.265110318642863</v>
+        <v>-0.2685721997139665</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-10.57535650903796</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-2.496544403292067</v>
+        <v>-2.496544403292064</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.1614920618168092</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0372054873584547</v>
+        <v>-0.1662776256675992</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.823417199477135</v>
+        <v>-2.734509739053509</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9580487502428762</v>
+        <v>-0.9445795052011063</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.468796373540247</v>
+        <v>-9.30124290300351</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-15.86128172164936</v>
+        <v>-15.75257313399651</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.837120594243752</v>
+        <v>-7.63328989079435</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.516980407007705</v>
+        <v>-3.594629278420599</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-8.144642732394301</v>
+        <v>-8.779634832272775</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.039931029823</v>
+        <v>-3.123648525166341</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.292963973725794</v>
+        <v>7.472360808216269</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.935919706904853</v>
+        <v>3.171793980512173</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.126871423656046</v>
+        <v>5.323795829010749</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.978434141427296</v>
+        <v>2.178465002319157</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-5.93854960780536</v>
+        <v>-5.548131005382182</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.932735727430937</v>
+        <v>2.611576266667938</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.395245341673899</v>
+        <v>3.087412076579499</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-2.375932234518499</v>
+        <v>-2.69439803816457</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.961179526482959</v>
+        <v>2.904146455443386</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.574599909180712</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1356468868138171</v>
+        <v>-0.135646886813817</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.01438716946729209</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.04984964843410947</v>
+        <v>-0.0668387640534447</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.582957117659239</v>
+        <v>-0.5161128469031516</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1857737170384212</v>
+        <v>-0.204663054074254</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4435775761659066</v>
+        <v>-0.4394548506662243</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7392985981150969</v>
+        <v>-0.7295604031897213</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3558173002315097</v>
+        <v>-0.3493924455705947</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2710014372850689</v>
+        <v>-0.2825310180588899</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.634684178612867</v>
+        <v>-0.6556578780763499</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2378629734858184</v>
+        <v>-0.2416739164241526</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.941291424573886</v>
+        <v>3.60684623345641</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.269548945970353</v>
+        <v>1.504686556614471</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.218660495275544</v>
+        <v>2.486335132989815</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1348099673581229</v>
+        <v>0.1475103216856038</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.3698365139797758</v>
+        <v>-0.324715971588859</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1984306390195049</v>
+        <v>0.2033873898505441</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3674256645700445</v>
+        <v>0.3179608266191583</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2400849524578858</v>
+        <v>-0.2628901627950815</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3343878324285917</v>
+        <v>0.2983567861530854</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-4.306297930142819</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.200288178745657</v>
+        <v>5.200288178745661</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-3.912862299073469</v>
@@ -1306,7 +1306,7 @@
         <v>-3.358997246126122</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.868448107047004</v>
+        <v>3.868448107047001</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.505572986554299</v>
+        <v>-5.434042436450885</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.469558861265815</v>
+        <v>-5.399696496682822</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.697036401212118</v>
+        <v>-1.539305310843935</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-10.74528769618888</v>
+        <v>-10.75763202054808</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.340029166867831</v>
+        <v>-9.609555170129651</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4342596294160547</v>
+        <v>-0.07404392535593596</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-7.090120193128506</v>
+        <v>-7.206489456641474</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.569659431408814</v>
+        <v>-6.349273907544262</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5530219910965672</v>
+        <v>0.7196352700227233</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9565708269535848</v>
+        <v>1.377697883928809</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9818634504114023</v>
+        <v>1.158179776685843</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.765382504283713</v>
+        <v>5.9093745739053</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.067873890781502</v>
+        <v>-0.5866430078950066</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3875522504311122</v>
+        <v>0.5982488438934546</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.33954258354774</v>
+        <v>10.12477179767934</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.96409169275549</v>
+        <v>-0.990918239336794</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.07723765426873618</v>
+        <v>0.04071217043836277</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.297573338317733</v>
+        <v>6.970533001674085</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.2500321063571799</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3019389341120198</v>
+        <v>0.3019389341120199</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.3258773228270486</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2797494382079855</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3221783482946358</v>
+        <v>0.3221783482946355</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6639653816089524</v>
+        <v>-0.6464784544973613</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6625121892029879</v>
+        <v>-0.6623159932392825</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2156550156880748</v>
+        <v>-0.2057216109654016</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5541098314992035</v>
+        <v>-0.5514351852344533</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4725129178625096</v>
+        <v>-0.4812492108745439</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01367118089035497</v>
+        <v>-0.004331747889093937</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5144953082332837</v>
+        <v>-0.525081425709563</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4722778478874112</v>
+        <v>-0.4751549280189577</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.04178988319287124</v>
+        <v>0.05583596453727785</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2310929059709301</v>
+        <v>0.3236930152437728</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2426184682784917</v>
+        <v>0.3217639382400439</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.156511074951176</v>
+        <v>1.293851732554358</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.09099133298983024</v>
+        <v>-0.04422534110889149</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.03239261176494299</v>
+        <v>0.04453545161916387</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7131095558954091</v>
+        <v>0.7311385460019048</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.08570258895600971</v>
+        <v>-0.09369605348881915</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.003478898410291417</v>
+        <v>0.005066033825773571</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7267391654587581</v>
+        <v>0.6946085374425742</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-4.566583401872905</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-2.237047593235474</v>
+        <v>-2.237047593235473</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-4.601610330881531</v>
@@ -1520,7 +1520,7 @@
         <v>-7.547985589477575</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-2.099951873338304</v>
+        <v>-2.099951873338306</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.193746648558886</v>
+        <v>-7.638996058349928</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.419248623222549</v>
+        <v>-9.124974982078204</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.581296311919737</v>
+        <v>-7.139295247689435</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-13.20910592649967</v>
+        <v>-12.44060277575929</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-17.46690261987671</v>
+        <v>-17.49418637326056</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-9.311556524436169</v>
+        <v>-8.585504659173173</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-8.282457015940887</v>
+        <v>-7.977183517640035</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-11.77584981148046</v>
+        <v>-11.37193106990599</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-6.035262657283062</v>
+        <v>-6.342588452395543</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.58996854907303</v>
+        <v>2.496869678020997</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.6949613026930411</v>
+        <v>-0.5775737057647364</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.76999466574953</v>
+        <v>1.631854352005732</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.361510760581076</v>
+        <v>2.866401991197135</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-3.572057034261555</v>
+        <v>-3.561865546349659</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.309325490112203</v>
+        <v>4.363422679956786</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.9854866567578535</v>
+        <v>0.8163155940341588</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-3.727869895408854</v>
+        <v>-2.823563308368825</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.243350987849149</v>
+        <v>1.663806803841607</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.6070452131068415</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2973752833264404</v>
+        <v>-0.2973752833264403</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.2269435380687296</v>
@@ -1625,7 +1625,7 @@
         <v>-0.5404079605593405</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1503488176667366</v>
+        <v>-0.1503488176667367</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6942810906741798</v>
+        <v>-0.7216991695385532</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8848381434965773</v>
+        <v>-0.8754802960729523</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6539664168781736</v>
+        <v>-0.6471247308043934</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5302838457862508</v>
+        <v>-0.5031690342695889</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7166107480352486</v>
+        <v>-0.7180661095548759</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3727097504185077</v>
+        <v>-0.3471902412450893</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4920954019905394</v>
+        <v>-0.5020685989102806</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.7051598300583056</v>
+        <v>-0.7126461370194723</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3636621439996132</v>
+        <v>-0.3710347334821882</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5960423730520678</v>
+        <v>0.6703815168561102</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.01352894475849372</v>
+        <v>0.02048802394978006</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4425077671455374</v>
+        <v>0.3651170422973496</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1741268010403033</v>
+        <v>0.1836074910539413</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1981567483740099</v>
+        <v>-0.1824738886192698</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2764737198693837</v>
+        <v>0.2843266015295335</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08900515089500083</v>
+        <v>0.06446255984025361</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.3057747850739174</v>
+        <v>-0.2520812873754207</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.207132279429334</v>
+        <v>0.1476442242096911</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.09049606275944815</v>
+        <v>0.4861830325743029</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-6.315497278801466</v>
+        <v>-6.043400007815836</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.575046057173579</v>
+        <v>-1.65338654018467</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.764588633255031</v>
+        <v>-3.620466232186416</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-10.8811445909335</v>
+        <v>-10.82055187229825</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-4.006134342069685</v>
+        <v>-5.35675343589429</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.5244628901771226</v>
+        <v>-0.527443067367838</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-6.971568412160907</v>
+        <v>-6.872760266280441</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.010621283223965</v>
+        <v>-2.068646012814449</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.629199962578973</v>
+        <v>9.343782078671243</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.593210523019672</v>
+        <v>1.766362911797663</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.298783652266413</v>
+        <v>5.969772188126022</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.50468026257523</v>
+        <v>10.14463948390214</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.078128929969042</v>
+        <v>1.968732868224821</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.5868173489629</v>
+        <v>6.725040239550001</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>8.015293835943284</v>
+        <v>7.716410125443396</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.627900161913274</v>
+        <v>0.2525600052245019</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.298118755083713</v>
+        <v>4.597823537442039</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.0615805949830922</v>
+        <v>0.04077126347002401</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7044345477551528</v>
+        <v>-0.6944154136653992</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1794153051743631</v>
+        <v>-0.1968315071120131</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1896482367020655</v>
+        <v>-0.173621601591884</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5171815864646124</v>
+        <v>-0.511517431043475</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2034568591936667</v>
+        <v>-0.2547913809769213</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.03959323931522565</v>
+        <v>-0.05507806915869726</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5026792207687092</v>
+        <v>-0.500271598423963</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1424552459131315</v>
+        <v>-0.1436334607281527</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.065889374796771</v>
+        <v>2.128216013669467</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3977539012990476</v>
+        <v>0.4265503026003906</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.176158212186177</v>
+        <v>1.538061497505358</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.7800393771211461</v>
+        <v>0.7255616561544804</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1552469246363488</v>
+        <v>0.1398731920978545</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4787122477261503</v>
+        <v>0.4738942762324435</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.8000810859824422</v>
+        <v>0.7619301534855525</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.05898608450451012</v>
+        <v>0.03174271030463176</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.5868859932399249</v>
+        <v>0.4624632350299019</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-4.475116036010149</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-1.704847669972748</v>
+        <v>-1.704847669972749</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.8021862738808838</v>
@@ -1948,7 +1948,7 @@
         <v>-5.597313652168619</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-0.1934957860932729</v>
+        <v>-0.1934957860932757</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.994142181755677</v>
+        <v>-4.915848282285023</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-7.400208809421399</v>
+        <v>-7.139572884592879</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.579668623579003</v>
+        <v>-4.620796989067553</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.093804440010082</v>
+        <v>-3.522148556672245</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-10.09407784259519</v>
+        <v>-10.58596601958604</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.509038660714065</v>
+        <v>-2.242718106215197</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-3.063458759343797</v>
+        <v>-3.318525718262529</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-8.018945877648001</v>
+        <v>-7.991588406217423</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.680066427042595</v>
+        <v>-2.434449721072272</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.9826186173245109</v>
+        <v>0.9610031236956437</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-1.891679524022818</v>
+        <v>-1.843807759605671</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.063060583624561</v>
+        <v>1.31741816559445</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.84585078246821</v>
+        <v>4.679077107928906</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-3.296938130690948</v>
+        <v>-3.478495442848958</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>4.410268141723189</v>
+        <v>4.812394737828855</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.802780499427989</v>
+        <v>1.743609279894163</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-3.648881744661592</v>
+        <v>-3.407663229248209</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.120581200923154</v>
+        <v>2.15726752860868</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.5508510349407311</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.2098531291398792</v>
+        <v>-0.2098531291398794</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.05450692868452633</v>
@@ -2053,7 +2053,7 @@
         <v>-0.4875038430792934</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.01685271635681383</v>
+        <v>-0.01685271635681407</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.529171359537442</v>
+        <v>-0.5009106694961321</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.7354790214394101</v>
+        <v>-0.7172653817064899</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4704387527707448</v>
+        <v>-0.4524250798247608</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1838782106089858</v>
+        <v>-0.2079296975235969</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6045405045849662</v>
+        <v>-0.6161835587760326</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1544240455167514</v>
+        <v>-0.133483920740241</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2373413180729498</v>
+        <v>-0.2575012211415968</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.6192806360018838</v>
+        <v>-0.6135998397829063</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2071012965298431</v>
+        <v>-0.1934741820031095</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1751639916015317</v>
+        <v>0.1341566545961372</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.2674678252851144</v>
+        <v>-0.2487117685336581</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1624113669313256</v>
+        <v>0.2245828834831873</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3891523890051904</v>
+        <v>0.3530549791139941</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.2461720506151935</v>
+        <v>-0.255707743342222</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.355682801332897</v>
+        <v>0.3838732280733598</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1842944710549106</v>
+        <v>0.1701666830469667</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.3488572373493399</v>
+        <v>-0.3225265203973984</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2166981886530578</v>
+        <v>0.2229465519826317</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-9.80958216686026</v>
+        <v>-9.763583661187129</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-10.753048308471</v>
+        <v>-10.60484327560924</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-10.16964232030661</v>
+        <v>-9.897876010847165</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-15.3151371353396</v>
+        <v>-14.88120573116997</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-15.645412130947</v>
+        <v>-15.53572741363516</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-11.93871734810802</v>
+        <v>-11.80701226489574</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-11.76332314614857</v>
+        <v>-11.56655124845088</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-12.15524392116777</v>
+        <v>-12.20237698031653</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-10.18482669765043</v>
+        <v>-10.06937053342116</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-4.768748674855384</v>
+        <v>-4.624819483398025</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-5.534367929253609</v>
+        <v>-5.723876870348195</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-5.196311204817207</v>
+        <v>-5.267788964205735</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-8.286377958265522</v>
+        <v>-7.466623340868404</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-8.370379196943709</v>
+        <v>-8.462243035675279</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-5.141317791051142</v>
+        <v>-4.9926798377858</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-6.925664918768779</v>
+        <v>-7.144968692672318</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-7.787180291419167</v>
+        <v>-7.657209568911889</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-5.791855700920371</v>
+        <v>-5.81589364278594</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.801767327511846</v>
+        <v>-0.7942808864498738</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.8574261193002672</v>
+        <v>-0.8544267740511025</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.8039286593672517</v>
+        <v>-0.7994540217578147</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.6659798100783504</v>
+        <v>-0.6631543452156257</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.6867045504957201</v>
+        <v>-0.6946647162589178</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.5242674270388952</v>
+        <v>-0.5205755257001149</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.6781692068099572</v>
+        <v>-0.6814233021145293</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.722999534403367</v>
+        <v>-0.7201407315236887</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.5873606988285111</v>
+        <v>-0.5887248837896722</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.5082695157898612</v>
+        <v>-0.4939130464784203</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.5812915766618694</v>
+        <v>-0.6038835843227822</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.5485465217743347</v>
+        <v>-0.5642245142992844</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.4358529424391601</v>
+        <v>-0.3938794863204363</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.4497753376331117</v>
+        <v>-0.4562649123439191</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.2783593798875565</v>
+        <v>-0.2779792385350618</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.4766413484854772</v>
+        <v>-0.493730461657074</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.536723720984834</v>
+        <v>-0.52626248035747</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.4007657534535081</v>
+        <v>-0.4004536580954121</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>-3.627151571888239</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-1.967565496292828</v>
+        <v>-1.967565496292827</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>-5.258062014386372</v>
@@ -2367,7 +2367,7 @@
         <v>-8.284843596348841</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-3.271694038125808</v>
+        <v>-3.271694038125805</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-3.680288974368419</v>
@@ -2376,7 +2376,7 @@
         <v>-5.97394762147638</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-2.577869689025521</v>
+        <v>-2.577869689025518</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-3.257208865779412</v>
+        <v>-3.11118287369042</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-4.837619114359846</v>
+        <v>-4.561247025162464</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-3.149578980011141</v>
+        <v>-3.030699940191679</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-6.939026349910912</v>
+        <v>-7.068816185430612</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-10.11791776606835</v>
+        <v>-9.964437772857359</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-4.812704918188286</v>
+        <v>-4.768880865226369</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-4.816396770169786</v>
+        <v>-4.871182289042517</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-7.015061509435426</v>
+        <v>-7.035913764212786</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-3.500632195262686</v>
+        <v>-3.563237492531078</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.9195760393247397</v>
+        <v>-0.6813178989123415</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-2.509636721219359</v>
+        <v>-2.422966666670526</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-0.8593725544968945</v>
+        <v>-0.7630290362092965</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>-3.593869270710079</v>
+        <v>-3.54016158120782</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-6.790300198327776</v>
+        <v>-6.594634751976887</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-1.697852993149652</v>
+        <v>-1.664841962349651</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>-2.538318608066815</v>
+        <v>-2.664588778800147</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-4.99019057337308</v>
+        <v>-5.007795868183969</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-1.523881545844034</v>
+        <v>-1.515761094100325</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>-0.5023941502802807</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.2725260789463617</v>
+        <v>-0.2725260789463615</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>-0.2978447559673545</v>
@@ -2472,7 +2472,7 @@
         <v>-0.4692978539299702</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.18532624942788</v>
+        <v>-0.1853262494278798</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.294019017712254</v>
@@ -2481,7 +2481,7 @@
         <v>-0.4772598629520308</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.2059465218726606</v>
+        <v>-0.2059465218726604</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.4163686588206612</v>
+        <v>-0.4042079710021432</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.6081708746477477</v>
+        <v>-0.5946575639131527</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.3979059249261768</v>
+        <v>-0.3837712026530471</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.3720599795663443</v>
+        <v>-0.3792843226761723</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.5389824992484515</v>
+        <v>-0.5387347911493281</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.2602601015795548</v>
+        <v>-0.2558861354339333</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.3658170987613996</v>
+        <v>-0.3685802181512839</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.5361880736244725</v>
+        <v>-0.5368101815833002</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.2691894590427011</v>
+        <v>-0.2700024656814143</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.1450179567267648</v>
+        <v>-0.1103363548536325</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.3814267062615702</v>
+        <v>-0.3697536318927649</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.1275555291573346</v>
+        <v>-0.1109112697049904</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>-0.2154729157232634</v>
+        <v>-0.2130068018804729</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.4000778206065003</v>
+        <v>-0.3970677263501056</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.1012825186821315</v>
+        <v>-0.1002784138835612</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>-0.2137270759239365</v>
+        <v>-0.2204556631542972</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.417851981218934</v>
+        <v>-0.4178630146059316</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.1324803708075198</v>
+        <v>-0.1231179207017386</v>
       </c>
     </row>
     <row r="58">
